--- a/[2분반]2013136043_박재우_마이크로프로세서_재료구매신청서.xlsx
+++ b/[2분반]2013136043_박재우_마이크로프로세서_재료구매신청서.xlsx
@@ -13,87 +13,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <x:si>
-    <x:t>기계식 스위치(적축)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레임(케이스)</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <x:si>
+    <x:t>https://goo.gl/Enk2gJ
+(비틀과 같은 구매처입니다.
+배송료 미포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이크로프로세서 및 실습</x:t>
+  </x:si>
+  <x:si>
+    <x:t>goo.gl/uby9c7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PartsKeyboard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기계식 스위치(청축)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키캡(블루)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아두이노 비틀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LED(블루)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수량(EA)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종가격</x:t>
   </x:si>
   <x:si>
     <x:t>https://goo.gl/OF1ZqS</x:t>
   </x:si>
   <x:si>
-    <x:t>https://goo.gl/Wuy8s7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아두이노 비틀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LED(블루)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키캡(블루)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수량(EA)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종가격</x:t>
+    <x:t>박재우</x:t>
   </x:si>
   <x:si>
     <x:t>과제명</x:t>
   </x:si>
   <x:si>
+    <x:t>부품명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
     <x:t>단가</x:t>
   </x:si>
   <x:si>
+    <x:t>과목명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
     <x:t>번호</x:t>
   </x:si>
   <x:si>
-    <x:t>부품명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
+    <x:t>링크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학번</x:t>
   </x:si>
   <x:si>
     <x:t>분반</x:t>
   </x:si>
   <x:si>
-    <x:t>과목명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>링크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이크로프로세서 및 실습</x:t>
-  </x:si>
-  <x:si>
-    <x:t>goo.gl/cI38Ij</x:t>
-  </x:si>
-  <x:si>
-    <x:t>goo.gl/uby9c7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PartsKeyboard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(아두이노 비틀과 같은 구매처입니다.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://goo.gl/Enk2gJ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박재우</x:t>
+    <x:t>아크릴 5T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.eleparts.co.kr/EPX37TYB
+(엘레파츠 
+ 배송료 포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.eleparts.co.kr/EPXFNDG9
+(엘레파츠
+배송료 미포함)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -137,40 +140,15 @@
       <x:color rgb="ff000000"/>
     </x:font>
     <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="9.8000001907348633"/>
-      <x:color rgb="ff444444"/>
+      <x:name val="함초롬바탕"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="12"/>
-      <x:color rgb="ff444444"/>
-    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
-          <x:name val="함초롬바탕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="함초롬바탕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="함초롬바탕"/>
-          <x:sz val="10"/>
+          <x:name val="Arial"/>
+          <x:sz val="9.8000001907348633"/>
           <x:color rgb="ff0000ff"/>
           <x:u/>
           <hs:underlineShape val="solid"/>
@@ -180,6 +158,52 @@
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
           <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="9.8000001907348633"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineType val="1"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="함초롬바탕"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineType val="1"/>
+          <hs:underlineColor rgb="ff0000ff"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -206,7 +230,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="5">
+  <x:borders count="6">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -275,6 +299,20 @@
       </x:top>
       <x:bottom style="thin">
         <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -325,7 +363,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -396,6 +434,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="justify" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="percent" hs:lineSpacing="160" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="justify" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -435,53 +486,105 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="justify" vertical="center"/>
+        <x:xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="percent" hs:lineSpacing="160" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="percent" hs:lineSpacing="160" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="percent" hs:lineSpacing="120" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-          <x:alignment horizontal="justify" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="justify" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="percent" hs:lineSpacing="120" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-          <x:alignment horizontal="justify" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="justify" vertical="center"/>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="percent" hs:lineSpacing="160" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-          <x:alignment horizontal="justify" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="justify" vertical="center"/>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="percent" hs:lineSpacing="160" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-          <x:alignment horizontal="justify" vertical="center"/>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -946,20 +1049,20 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing0.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>942975</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
@@ -976,8 +1079,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7200900" y="1257300"/>
-          <a:ext cx="800100" cy="772699"/>
+          <a:off x="8143875" y="1251856"/>
+          <a:ext cx="802821" cy="748392"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -989,19 +1092,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>676275</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="6" name=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1014,8 +1117,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7200900" y="2029999"/>
-          <a:ext cx="879675" cy="914399"/>
+          <a:off x="8109859" y="3525572"/>
+          <a:ext cx="836838" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1027,19 +1130,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvPr id="7" name=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1052,8 +1155,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7200900" y="2944399"/>
-          <a:ext cx="1209675" cy="735543"/>
+          <a:off x="8143875" y="4287572"/>
+          <a:ext cx="802822" cy="747070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1065,19 +1168,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>695325</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvPr id="8" name=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1090,8 +1193,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8820152" y="1221896"/>
-          <a:ext cx="866775" cy="843505"/>
+          <a:off x="8109859" y="2845692"/>
+          <a:ext cx="808263" cy="594154"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1103,19 +1206,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2314575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvPr id="9" name=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1128,8 +1231,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534401" y="2170177"/>
-          <a:ext cx="981075" cy="927933"/>
+          <a:off x="8109859" y="2000249"/>
+          <a:ext cx="808264" cy="654943"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1400,8 +1503,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:G17"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="F23" activeCellId="0" sqref="F23:F23"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <x:selection activeCell="L9" activeCellId="0" sqref="L9:L9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.399999999999999"/>
@@ -1417,192 +1520,192 @@
       <x:c r="A1" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C1" s="7"/>
-      <x:c r="D1" s="7"/>
-      <x:c r="E1" s="7"/>
-      <x:c r="F1" s="7"/>
-      <x:c r="G1" s="8"/>
+      <x:c r="B1" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="8"/>
+      <x:c r="D1" s="8"/>
+      <x:c r="E1" s="8"/>
+      <x:c r="F1" s="8"/>
+      <x:c r="G1" s="9"/>
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B2" s="6">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B2" s="7">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="7"/>
-      <x:c r="D2" s="7"/>
-      <x:c r="E2" s="7"/>
-      <x:c r="F2" s="7"/>
-      <x:c r="G2" s="8"/>
+      <x:c r="C2" s="8"/>
+      <x:c r="D2" s="8"/>
+      <x:c r="E2" s="8"/>
+      <x:c r="F2" s="8"/>
+      <x:c r="G2" s="9"/>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B3" s="6">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B3" s="7">
         <x:v>2013136043</x:v>
       </x:c>
-      <x:c r="C3" s="7"/>
-      <x:c r="D3" s="7"/>
-      <x:c r="E3" s="7"/>
-      <x:c r="F3" s="7"/>
-      <x:c r="G3" s="8"/>
+      <x:c r="C3" s="8"/>
+      <x:c r="D3" s="8"/>
+      <x:c r="E3" s="8"/>
+      <x:c r="F3" s="8"/>
+      <x:c r="G3" s="9"/>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B4" s="6" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C4" s="7"/>
-      <x:c r="D4" s="7"/>
-      <x:c r="E4" s="7"/>
-      <x:c r="F4" s="7"/>
-      <x:c r="G4" s="8"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="7" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="8"/>
+      <x:c r="D4" s="8"/>
+      <x:c r="E4" s="8"/>
+      <x:c r="F4" s="8"/>
+      <x:c r="G4" s="9"/>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B5" s="6" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C5" s="7"/>
-      <x:c r="D5" s="7"/>
-      <x:c r="E5" s="7"/>
-      <x:c r="F5" s="7"/>
-      <x:c r="G5" s="8"/>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B5" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="8"/>
+      <x:c r="D5" s="8"/>
+      <x:c r="E5" s="8"/>
+      <x:c r="F5" s="8"/>
+      <x:c r="G5" s="9"/>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:7">
+    <x:row r="7" spans="1:7" ht="60" customHeight="1">
       <x:c r="A7" s="2">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="2">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C7" s="12">
         <x:v>12100</x:v>
       </x:c>
-      <x:c r="D7" s="2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E7" s="2">
-        <x:v>14600</x:v>
-      </x:c>
-      <x:c r="F7" s="9" t="s">
+      <x:c r="D7" s="13">
         <x:v>2</x:v>
+      </x:c>
+      <x:c r="E7" s="12">
+        <x:v>26700</x:v>
+      </x:c>
+      <x:c r="F7" s="14" t="s">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G7" s="2"/>
     </x:row>
-    <x:row r="8" spans="1:7">
+    <x:row r="8" spans="1:7" ht="60" customHeight="1">
       <x:c r="A8" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C8" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C8" s="10">
         <x:v>15000</x:v>
       </x:c>
-      <x:c r="D8" s="2">
+      <x:c r="D8" s="11">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E8" s="2">
+      <x:c r="E8" s="10">
         <x:v>17500</x:v>
       </x:c>
-      <x:c r="F8" s="10" t="s">
-        <x:v>22</x:v>
+      <x:c r="F8" s="15" t="s">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G8" s="2"/>
     </x:row>
-    <x:row r="9" spans="1:7">
+    <x:row r="9" spans="1:7" ht="60" customHeight="1">
       <x:c r="A9" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C9" s="2">
-        <x:v>50000</x:v>
-      </x:c>
-      <x:c r="D9" s="2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E9" s="2">
-        <x:v>52500</x:v>
-      </x:c>
-      <x:c r="F9" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C9" s="10">
+        <x:v>6300</x:v>
+      </x:c>
+      <x:c r="D9" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E9" s="10">
+        <x:v>30220</x:v>
+      </x:c>
+      <x:c r="F9" s="16" t="s">
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G9" s="2"/>
     </x:row>
-    <x:row r="10" spans="1:7">
+    <x:row r="10" spans="1:7" ht="60" customHeight="1">
       <x:c r="A10" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C10" s="2">
-        <x:v>8000</x:v>
-      </x:c>
-      <x:c r="D10" s="2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C10" s="10">
+        <x:v>4470</x:v>
+      </x:c>
+      <x:c r="D10" s="11">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E10" s="2">
-        <x:v>10500</x:v>
-      </x:c>
-      <x:c r="F10" s="11" t="s">
-        <x:v>3</x:v>
+      <x:c r="E10" s="10">
+        <x:v>4910</x:v>
+      </x:c>
+      <x:c r="F10" s="16" t="s">
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G10" s="2"/>
     </x:row>
-    <x:row r="11" spans="1:7">
+    <x:row r="11" spans="1:7" ht="60" customHeight="1">
       <x:c r="A11" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C11" s="2">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="11">
         <x:v>330</x:v>
       </x:c>
-      <x:c r="D11" s="2">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E11" s="2">
-        <x:v>1980</x:v>
-      </x:c>
-      <x:c r="F11" s="12" t="s">
-        <x:v>25</x:v>
+      <x:c r="D11" s="11">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E11" s="10">
+        <x:v>3300</x:v>
+      </x:c>
+      <x:c r="F11" s="17" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G11" s="2"/>
     </x:row>
@@ -1612,9 +1715,7 @@
       <x:c r="C12" s="2"/>
       <x:c r="D12" s="2"/>
       <x:c r="E12" s="2"/>
-      <x:c r="F12" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
+      <x:c r="F12" s="6"/>
       <x:c r="G12" s="2"/>
     </x:row>
     <x:row r="13" spans="1:7">
@@ -1658,11 +1759,11 @@
       <x:c r="B17" s="2"/>
       <x:c r="C17" s="2"/>
       <x:c r="D17" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E17" s="1">
         <x:f>SUM(E7:E11)</x:f>
-        <x:v>97080</x:v>
+        <x:v>82630</x:v>
       </x:c>
       <x:c r="F17" s="2"/>
       <x:c r="G17" s="2"/>
@@ -1676,10 +1777,12 @@
     <x:mergeCell ref="B1:G1"/>
   </x:mergeCells>
   <x:hyperlinks>
-    <x:hyperlink ref="F11:F11" r:id="rId1" tooltip="file:///https://goo.gl/Enk2gJ"/>
+    <x:hyperlink ref="F9:F9" r:id="rId1" tooltip="http://www.eleparts.co.kr/EPX37TYB"/>
+    <x:hyperlink ref="F10:F10" r:id="rId2" tooltip="http://www.eleparts.co.kr/EPXFNDG9"/>
+    <x:hyperlink ref="F11:F11" r:id="rId3" tooltip="file:///https://goo.gl/Enk2gJ"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <x:drawing r:id="rId2"/>
+  <x:drawing r:id="rId4"/>
 </x:worksheet>
 </file>